--- a/config_2.9/systgxt_config.xlsx
+++ b/config_2.9/systgxt_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>line</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;6.更多问题咨询：&lt;/color&gt;&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>"推广问题：添加鲸小哥微信JY400888咨询","游戏问题：搜索公众号“畅游新世界”，点击“联系客服”咨询"</t>
   </si>
   <si>
     <t>&lt;size=42&gt;&lt;color=#000000&gt;1.1.如何邀请好友？&lt;/color&gt;&lt;/size&gt;</t>
@@ -121,6 +118,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,6 +146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +163,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,16 +186,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>【我的收益】页面查看已成功邀请的好友。&lt;/color&gt;"</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广奖励金以现金形式发放，在【我的收益】界面绑定支付宝可提取。每日可提取1次，10元起提，每次上限200元。",
-  "&lt;color=#FF0000&gt;海报不具备关系绑定功能，一定要让好友在个人中心填写推广码哦！&lt;/color&gt;","2）关注公众号“畅游新世界”，转发给好友下载游戏即可"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -253,6 +250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,7 +259,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。"</t>
+    <t>"推广奖励金以现金形式发放，在【我的收益】界面绑定支付宝可提取。每日可提取1次，10元起提，每次上限200元。",
+  "&lt;color=#FF0000&gt;海报不具备关系绑定功能，一定要让好友在个人中心填写推广码哦！&lt;/color&gt;","2）关注公众号“畅游新世界”，转发给好友下载游戏即可"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"在【我的收益】中可查看好友列表和任务状态",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"推广问题：添加鲸小哥微信JY400888咨询","游戏问题：搜索公众号“畅游新世界”，点击“联系客服”咨询"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,6 +291,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -385,8 +397,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1534,8 +1546,8 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1556,10 +1568,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1580,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1604,10 +1616,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1628,10 +1640,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1652,10 +1664,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>

--- a/config_2.9/systgxt_config.xlsx
+++ b/config_2.9/systgxt_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>line</t>
   </si>
@@ -274,6 +274,10 @@
   <si>
     <t>"推广问题：添加鲸小哥微信JY400888咨询","游戏问题：搜索公众号“畅游新世界”，点击“联系客服”咨询"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"banner_001","banner_002"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -360,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,7 +794,9 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
@@ -1385,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_2.9/systgxt_config.xlsx
+++ b/config_2.9/systgxt_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="permission" sheetId="1" r:id="rId1"/>
@@ -259,11 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"推广奖励金以现金形式发放，在【我的收益】界面绑定支付宝可提取。每日可提取1次，10元起提，每次上限200元。",
-  "&lt;color=#FF0000&gt;海报不具备关系绑定功能，一定要让好友在个人中心填写推广码哦！&lt;/color&gt;","2）关注公众号“畅游新世界”，转发给好友下载游戏即可"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"搜索公众号“彩云新世界”，点击“联系客服”咨询。",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +273,11 @@
   <si>
     <t>"banner_001","banner_002"</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"推广奖励金以现金形式发放，在【我的收益】界面绑定支付宝可提取。每日可提取1次，10元起提，每次上限200元。",
+  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1596,7 +1596,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1652,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1676,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
